--- a/data/trans_dic/P54_A_5_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P54_A_5_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -531,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido</t>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -632,47 +633,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,33%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,73%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>5,94; 11,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,47; 5,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,0; 0,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>9,54; 15,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>0,13; 1,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,63; 2,33</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>8,42; 12,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,52; 2,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,17</t>
+          <t>0,39; 1,37</t>
         </is>
       </c>
     </row>
@@ -742,47 +743,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,11%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,74%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,48</t>
+          <t>5,46; 11,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,56</t>
+          <t>0,0; 1,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,3; 1,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>8,74; 15,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,22; 2,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>0,25; 1,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>7,74; 12,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>0,26; 1,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>0,38; 1,48</t>
         </is>
       </c>
     </row>
@@ -852,47 +853,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>10,77%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>2,17; 32,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,77</t>
+          <t>3,65; 14,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,0</t>
+          <t>0,0; 3,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,62</t>
+          <t>0,0; 4,06</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,02</t>
+          <t>4,35; 22,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,07</t>
+          <t>0,0; 2,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>0,0; 2,17</t>
         </is>
       </c>
     </row>
@@ -962,47 +963,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,5%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>11,38%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>9,93%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,72%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>6,54; 11,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,37; 2,83</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>0,18; 0,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>9,53; 13,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>0,29; 1,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>0,57; 1,62</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>8,67; 11,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>0,46; 1,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,47; 1,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1072,4 +1080,799 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se encuentra preocupada por sufrir problemas con los estudios o ya le ha ocurrido (tasa de respuesta: 93,98%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>94936</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>28262</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>3672</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>140843</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>10492</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>21429</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>235779</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>38754</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>25101</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>67699; 126853</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7680; 92316</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0; 12179</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>109812; 176157</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2305; 30572</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11130; 41152</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>192815; 285935</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17518; 100648</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13347; 46442</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>80349</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5873</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>11064</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>108292</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>11227</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8836</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>188641</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17099</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>19900</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>54047; 113329</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21998</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>4015; 26687</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>82770; 142438</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2937; 28745</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3331; 24115</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>149998; 232836</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>6920; 36747</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>10147; 39872</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>27102</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>18135</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45237</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>3396</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>4837</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5456; 80930</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9171; 35429</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 14732</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 15852</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>21881; 114894</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0; 16869</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0; 17363</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>121.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>202387</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34135</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14736</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>267270</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>25114</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>35102</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>469657</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>59249</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>49838</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>155645; 271877</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12578; 95740</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>6215; 30113</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>223738; 312519</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10069; 48176</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>19743; 56656</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>409979; 553655</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31464; 121070</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>32094; 75081</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>